--- a/data/trans_camb/P1402-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1402-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>2.216241824634826</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.676924554592593</v>
+        <v>3.676924554592589</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.106287834263544</v>
@@ -664,7 +664,7 @@
         <v>3.061206523330889</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>4.005048325879547</v>
+        <v>4.005048325879549</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.379045789115905</v>
+        <v>-1.364376991869463</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.148265145329781</v>
+        <v>1.133336039552328</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.641559092069135</v>
+        <v>1.501200094123116</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.434630260664169</v>
+        <v>-1.612688128683705</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.348009169892791</v>
+        <v>-0.3524103178880364</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.332827320876503</v>
+        <v>1.387159505579043</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.7294617659371987</v>
+        <v>-0.6645482975700118</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.149608587958591</v>
+        <v>1.072854159159406</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.299108015588402</v>
+        <v>2.327377837240664</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.891617853732861</v>
+        <v>4.055131383503783</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.019812451353618</v>
+        <v>6.625637810535482</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.878444602308907</v>
+        <v>7.062217847862046</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.769859028052513</v>
+        <v>3.617762525041298</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.409597956722703</v>
+        <v>5.248137462008033</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.920511982596476</v>
+        <v>6.086857444364075</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.890889610566881</v>
+        <v>3.073530410536519</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.194868766996112</v>
+        <v>5.263858836067113</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.879196105204269</v>
+        <v>5.893409731990819</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.3675833580998295</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6098505407818332</v>
+        <v>0.6098505407818325</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1879040174249896</v>
@@ -769,7 +769,7 @@
         <v>0.5199487747095929</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.6802611825836246</v>
+        <v>0.6802611825836248</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2130382425381297</v>
+        <v>-0.193706111709734</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1513664761724116</v>
+        <v>0.153008391047313</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2047264690657634</v>
+        <v>0.1913548321476338</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1992791319385816</v>
+        <v>-0.2202206887971947</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.05565698106690145</v>
+        <v>-0.07324363328933754</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1766885501594208</v>
+        <v>0.1626345272833838</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1106110726902229</v>
+        <v>-0.09949355046541676</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1620375962511543</v>
+        <v>0.1596752262007463</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3359273781217507</v>
+        <v>0.331966355579202</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8438348288069546</v>
+        <v>0.8508424502223684</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.530700033404252</v>
+        <v>1.428813675679224</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.486744848873645</v>
+        <v>1.539001630005338</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7741783378735003</v>
+        <v>0.7315589417340093</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.102893296834317</v>
+        <v>1.096316847771339</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.247996719560404</v>
+        <v>1.296186159662617</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5854619363518691</v>
+        <v>0.5920815169633991</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.067601963093809</v>
+        <v>1.067086641700872</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.185584620983225</v>
+        <v>1.205022532114115</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.2496937636415078</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.06846053966984983</v>
+        <v>0.06846053966984844</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.05453406183875131</v>
@@ -878,7 +878,7 @@
         <v>0.9324454076169941</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1.074724921744724</v>
+        <v>1.074724921744725</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.688907452977428</v>
+        <v>-2.414789536504236</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.9431302219074313</v>
+        <v>-0.5776239824201497</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.1969165569204552</v>
+        <v>-0.1589669138652746</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.45304001052646</v>
+        <v>-2.220072821939204</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.344336590039468</v>
+        <v>-2.177210788685024</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.119546086481002</v>
+        <v>-2.154250344920983</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.715636545496231</v>
+        <v>-1.726579449604455</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.6463650083454132</v>
+        <v>-0.7910429902193061</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.4940938588773944</v>
+        <v>-0.5181877570054653</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.843303443448096</v>
+        <v>2.065016642200047</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.827393346183855</v>
+        <v>4.115116619237957</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.450609459318289</v>
+        <v>4.359294081938382</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.703415552344512</v>
+        <v>2.627009166952108</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.659508741634525</v>
+        <v>2.475283952939427</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.247997600795234</v>
+        <v>2.108694496131434</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.532143876227803</v>
+        <v>1.735475803557975</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.747421209572434</v>
+        <v>2.734620438119268</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.653806469483863</v>
+        <v>2.62895685405215</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.03158118302545278</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008658865971674543</v>
+        <v>0.008658865971674368</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.007435208040811561</v>
@@ -983,7 +983,7 @@
         <v>0.1271301890702964</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.1465286668622723</v>
+        <v>0.1465286668622725</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3319934583990956</v>
+        <v>-0.3189609579602493</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1221441932102751</v>
+        <v>-0.08163250224241445</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.02778052946009406</v>
+        <v>-0.03139368715510749</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2726642489794449</v>
+        <v>-0.2464359405312877</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.253475879710087</v>
+        <v>-0.2435639633289553</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2247721675667311</v>
+        <v>-0.2230026738034835</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.215071079230637</v>
+        <v>-0.2074868127085051</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.08492106266610426</v>
+        <v>-0.09975539860926376</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.06166845764737301</v>
+        <v>-0.06424739862803863</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3394794100999795</v>
+        <v>0.3757104362756444</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6653346381189515</v>
+        <v>0.7239778802363774</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.8007614959443387</v>
+        <v>0.7765985377807834</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3830483111059608</v>
+        <v>0.407568585615905</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4146484630579581</v>
+        <v>0.3673806586870022</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3494010949258322</v>
+        <v>0.3200099935453403</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2380591885011664</v>
+        <v>0.2656010319269462</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.427227220701057</v>
+        <v>0.4207797384914405</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4141440827746058</v>
+        <v>0.4066306507409115</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>2.255493227423652</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.2201617263770397</v>
+        <v>-0.2201617263770383</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.351549492016331</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4680884581877737</v>
+        <v>0.2521217870295788</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.745124218430481</v>
+        <v>2.548526107952505</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.142899457456894</v>
+        <v>2.022943009708216</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.8921867627976556</v>
+        <v>-0.7486494486402289</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.5348004422556655</v>
+        <v>-0.4725906619429817</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.492921360318196</v>
+        <v>-2.432999078380228</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4418961631823913</v>
+        <v>0.6624754613998567</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.818046102917739</v>
+        <v>1.971867445599095</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4299617900141812</v>
+        <v>0.3959019070185776</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.546795974701911</v>
+        <v>5.360720875687288</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.355646685286244</v>
+        <v>8.052522808658525</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.824108474671775</v>
+        <v>6.725219468148101</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.531498820808038</v>
+        <v>5.029889179523819</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.261304083903152</v>
+        <v>5.06474258927645</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.005799372103416</v>
+        <v>2.057090136657526</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.267272535011291</v>
+        <v>4.189937870053295</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.76142076163503</v>
+        <v>5.893009851002198</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.813675475963889</v>
+        <v>3.755445279544423</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.3405409486405117</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.03324065984468035</v>
+        <v>-0.03324065984468014</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.4263348635481464</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.06300374833572672</v>
+        <v>0.00779341277429966</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.4523153329339827</v>
+        <v>0.3800845825351311</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3578558644686332</v>
+        <v>0.3607816028957726</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1275851362796591</v>
+        <v>-0.09378743879490724</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.06643769425347786</v>
+        <v>-0.06229367774086932</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3070564720416197</v>
+        <v>-0.3094859574777654</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07645658507650437</v>
+        <v>0.09157524493811472</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2596992451421604</v>
+        <v>0.2874622472348806</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.06957972824618326</v>
+        <v>0.0652316950308547</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.684227721520047</v>
+        <v>1.567118908850225</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.410735708855935</v>
+        <v>2.345489559137817</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.036813154221215</v>
+        <v>1.983383993669143</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8618021440749993</v>
+        <v>0.9191529513487143</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.028737046285155</v>
+        <v>0.9792797540353562</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3872501201592262</v>
+        <v>0.4119922204129868</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.923916547635394</v>
+        <v>0.9079290643122582</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.228412872029417</v>
+        <v>1.233541284299291</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.8358674301028822</v>
+        <v>0.8146170739401497</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>2.383922638280644</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4.229782954004345</v>
+        <v>4.229782954004343</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.94555607365024</v>
@@ -1297,7 +1297,7 @@
         <v>1.985420011246795</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.124285287224817</v>
+        <v>1.124285287224813</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.945470859932318</v>
@@ -1306,7 +1306,7 @@
         <v>2.176364636749335</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.587094556748666</v>
+        <v>2.587094556748665</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.450706276863227</v>
+        <v>1.663392897760188</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2910794646079242</v>
+        <v>0.2588972786112066</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.169235884983582</v>
+        <v>2.012166547621022</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.567035136444437</v>
+        <v>1.643963242097657</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.4253031932299247</v>
+        <v>-0.2401006713839277</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.7820567761289973</v>
+        <v>-0.8960785229054899</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.270894760231872</v>
+        <v>2.226137225865703</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5897084901851517</v>
+        <v>0.5028469459560438</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.196018195892969</v>
+        <v>1.148601465473861</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.230334064552744</v>
+        <v>6.517527348056457</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.748773325020964</v>
+        <v>4.726086352089895</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.393896104359687</v>
+        <v>6.36853721408186</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.315115139913812</v>
+        <v>6.608488936852384</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.493774279568563</v>
+        <v>4.524087744731912</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.002813604815769</v>
+        <v>3.147003572129661</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.8979835036915</v>
+        <v>5.726177428283168</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.825196452865399</v>
+        <v>3.830418175322128</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.061234438645629</v>
+        <v>4.095176213856958</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.4428156566043955</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.7856857793935741</v>
+        <v>0.7856857793935739</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.6219425148954905</v>
@@ -1402,7 +1402,7 @@
         <v>0.3129640263295691</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1772223752353613</v>
+        <v>0.1772223752353607</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.6701885066063552</v>
@@ -1411,7 +1411,7 @@
         <v>0.3696832691241675</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.439450980374637</v>
+        <v>0.4394509803746368</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.226376156730033</v>
+        <v>0.2536932146521651</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.04113113965308412</v>
+        <v>0.03817439209631879</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3356580569297783</v>
+        <v>0.3079370294637986</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2007092892958805</v>
+        <v>0.2150108583075214</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.05728818748974353</v>
+        <v>-0.03853690550695879</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1014544926781908</v>
+        <v>-0.1199376799927472</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3351477652977052</v>
+        <v>0.3337739105914199</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.08774517439085647</v>
+        <v>0.0695059118169439</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1837777064020309</v>
+        <v>0.1658706753805272</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.369472758327309</v>
+        <v>1.43979834308122</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.067689836840845</v>
+        <v>1.085923572577035</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.417599420504233</v>
+        <v>1.433126547640804</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.149196621722359</v>
+        <v>1.241242989675111</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8801936215955554</v>
+        <v>0.8380688342613655</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6059787598112928</v>
+        <v>0.6102240949948299</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.12344930108799</v>
+        <v>1.086467646745822</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7575207027363878</v>
+        <v>0.7168402282886984</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.7914098549089036</v>
+        <v>0.7922397515706632</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>1.600010586562366</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1.037145271065479</v>
+        <v>1.037145271065477</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.851824315046574</v>
@@ -1520,7 +1520,7 @@
         <v>2.342393501092925</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>2.313462686277222</v>
+        <v>2.313462686277219</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.6346959897826815</v>
+        <v>0.6440121690937087</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.84247453584475</v>
+        <v>1.849561866638437</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.479261638277217</v>
+        <v>2.46993381368183</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.5269813037839912</v>
+        <v>0.6234248437499652</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2262735100247774</v>
+        <v>0.3503233556986473</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.1684302578259277</v>
+        <v>-0.09592007756880366</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.9438654975031537</v>
+        <v>0.9691309039613875</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.452612509181451</v>
+        <v>1.441803923122271</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.514666467394973</v>
+        <v>1.449255546886718</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.05239284392564</v>
+        <v>3.102450959175874</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.284196642613304</v>
+        <v>4.272014007756864</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.819350179986999</v>
+        <v>4.803946558243284</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.057369716342327</v>
+        <v>3.221437021615489</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.913608384281827</v>
+        <v>3.008817944876721</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.041427378893651</v>
+        <v>2.201550703369332</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.689664846293482</v>
+        <v>2.778405122019749</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.221228449739606</v>
+        <v>3.305905843296692</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.171218180166267</v>
+        <v>3.064980387989733</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.235846534415988</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1528784371310091</v>
+        <v>0.1528784371310089</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2971979077441873</v>
@@ -1625,7 +1625,7 @@
         <v>0.3759289917417951</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.3712859067781196</v>
+        <v>0.3712859067781191</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1063822967042156</v>
+        <v>0.09812053102309215</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2889217717488108</v>
+        <v>0.2940200111323942</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3887547857002217</v>
+        <v>0.3892833255508732</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.07104775063655817</v>
+        <v>0.08370692528417392</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.03239918004900396</v>
+        <v>0.04468052808114682</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.0239570365269187</v>
+        <v>-0.01348261651801903</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1429946596117509</v>
+        <v>0.149772664213655</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2156608753368496</v>
+        <v>0.2134611706941733</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2251365778862977</v>
+        <v>0.2086171616882716</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6173338799121382</v>
+        <v>0.5958768254975338</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.825833330553661</v>
+        <v>0.838443532069176</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.9339683701810552</v>
+        <v>0.9224201214654291</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5057983026005841</v>
+        <v>0.5205773214692685</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4717665143633442</v>
+        <v>0.496925963057538</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3310521560570366</v>
+        <v>0.3580490749583012</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.461470708885237</v>
+        <v>0.4818651547436584</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5478788582766675</v>
+        <v>0.5595150828873962</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5497068792695342</v>
+        <v>0.5334627439366735</v>
       </c>
     </row>
     <row r="34">
